--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_MTT_181004_MatrizTrazabilidadRequisitos_v1.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_MTT_181004_MatrizTrazabilidadRequisitos_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROY\Desktop\Uni\XesPro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROY\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541460A4-417D-402F-8436-E3A22F41B85B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0730938F-9C3B-488F-9640-C112FB042278}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="15195" windowHeight="8700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Código de Proyecto:</t>
   </si>
@@ -105,12 +105,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Dependencias / Observaciones</t>
-  </si>
-  <si>
-    <t>Solicitudes de Cambio asociadas</t>
-  </si>
-  <si>
     <t>Código Requisito</t>
   </si>
   <si>
@@ -123,81 +117,15 @@
     <t>Título</t>
   </si>
   <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>Entregable de EDT</t>
-  </si>
-  <si>
-    <t>Diseño del producto</t>
-  </si>
-  <si>
-    <t>Desarrollo del producto</t>
-  </si>
-  <si>
-    <t>Casos de prueba</t>
-  </si>
-  <si>
-    <t>no aplica en esta entrega</t>
-  </si>
-  <si>
     <t>Oportunidades</t>
   </si>
   <si>
-    <t>Datos comandas</t>
-  </si>
-  <si>
-    <t>Todos los datos que van en una comanda</t>
-  </si>
-  <si>
     <t>Ahorro de tiempo en busqueda de info</t>
   </si>
   <si>
-    <t>OBJ-0001 OBJ-0005</t>
-  </si>
-  <si>
-    <t>Datos mesas</t>
-  </si>
-  <si>
-    <t>Datos camareros</t>
-  </si>
-  <si>
-    <t>Datos Stock</t>
-  </si>
-  <si>
-    <t>Datos legales</t>
-  </si>
-  <si>
-    <t>Datos nominas</t>
-  </si>
-  <si>
-    <t>Datos de las mesas y de los clientes de las mismas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datos de todos los camareros </t>
-  </si>
-  <si>
-    <t>Eficiencia a la hora de realizar el trabajo</t>
-  </si>
-  <si>
-    <t>Datos de todos los productos de los que dispone el bar</t>
-  </si>
-  <si>
-    <t>Datos de todos los procesos legistalivos que tiene que hacer el local</t>
-  </si>
-  <si>
-    <t>Datos de nóminas y salidas de dinero del restaurante</t>
-  </si>
-  <si>
-    <t>Control de ingresos y gastos</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
-    <t>RR</t>
-  </si>
-  <si>
     <t>Seleccionar productos pedido</t>
   </si>
   <si>
@@ -228,9 +156,6 @@
     <t>Informar cliente</t>
   </si>
   <si>
-    <t>Ofrecer internet a cliente</t>
-  </si>
-  <si>
     <t>Interactuar con el local</t>
   </si>
   <si>
@@ -312,21 +237,6 @@
     <t>Ahorro de tiempo en recogida de información</t>
   </si>
   <si>
-    <t>OBJ-0001 OBJ-0005 OBJ-0003   OBJ-0004   OBJ-0007</t>
-  </si>
-  <si>
-    <t>OBJ-0001 OBJ-0005 OBJ-0011 OBJ-0012 OBJ-0009</t>
-  </si>
-  <si>
-    <t>OBJ-0005 OBJ-0009</t>
-  </si>
-  <si>
-    <t>OBJ-0002 OBJ-0006 OBJ-0009</t>
-  </si>
-  <si>
-    <t>OBJ-0009</t>
-  </si>
-  <si>
     <t>IRQ-0004</t>
   </si>
   <si>
@@ -351,79 +261,34 @@
     <t>IRQ-0002 IRQ-0003</t>
   </si>
   <si>
-    <t>Sistema operativo tablets</t>
-  </si>
-  <si>
-    <t>Protección de datos</t>
-  </si>
-  <si>
-    <t>Interfaz Visual</t>
-  </si>
-  <si>
-    <t>Escaneo con QR</t>
-  </si>
-  <si>
-    <t>Conexión base de datos</t>
-  </si>
-  <si>
-    <t>horarios camareros</t>
-  </si>
-  <si>
-    <t>El proyecto está restringido por el sistema operativo sobre el cual correrá la aplicación</t>
-  </si>
-  <si>
-    <t>Los datos deberán ser protegidos siguiendo la legislación vigente</t>
-  </si>
-  <si>
-    <t>La intefaz debe ser usable para ahorrar el máximo tiempo posible a los implicados</t>
-  </si>
-  <si>
-    <t>El sistema debe adaptarse a un sistema de lectura QR posiblemente ya prestablecido</t>
-  </si>
-  <si>
-    <t>La base de datos no será diseñada por nosotros por tanto la conexión con esta estára restringida por el codigo de la misma</t>
-  </si>
-  <si>
-    <t>Los camareros tienen un horario y la eficiencia del local dependerá del reparto del mismo</t>
-  </si>
-  <si>
-    <t>Control a la hora de programar</t>
-  </si>
-  <si>
-    <t>Asegurarse de la seguridad de los usuarios</t>
-  </si>
-  <si>
-    <t>Eficiencia al mejorar la usabilidad</t>
-  </si>
-  <si>
-    <t>Eficiencia al utilizar un sistema de recogida de datos inmediato</t>
-  </si>
-  <si>
-    <t>Eficiencia de programación al usar un código prestablecido</t>
-  </si>
-  <si>
-    <t>Eficiencia a la hora de repartir el personal al local y los recursos de estos</t>
-  </si>
-  <si>
-    <t>OBJ-0001  OBJ-0002  OBJ-0003  OBJ-0004  OBJ-0005  OBJ-0006
-OBJ-0007  OBJ-0009</t>
-  </si>
-  <si>
-    <t>OBJ-0002 OBJ-0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJ-0001  OBJ-0002  OBJ-0003  OBJ-0004  OBJ-0005  OBJ-0006
-OBJ-0007  </t>
-  </si>
-  <si>
-    <t>OBJ-0005 OBJ-0009 OBJ-0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJ-0001  OBJ-0002  OBJ-0003  OBJ-0004  OBJ-0005  OBJ-0006
-OBJ-0007 OBJ-0008 OBJ-0009 </t>
-  </si>
-  <si>
-    <t>OBJ-0009 OBJ-0010 OBJ-0011</t>
+    <t>Dependencias con RI</t>
+  </si>
+  <si>
+    <t>Dependencias con Objetivos</t>
+  </si>
+  <si>
+    <t>Ofrecer intretenimiento a cliente</t>
+  </si>
+  <si>
+    <t>OBJ-0008</t>
+  </si>
+  <si>
+    <t>OBJ-0001</t>
+  </si>
+  <si>
+    <t>OBJ-0003 OBJ-0006</t>
+  </si>
+  <si>
+    <t>OBJ-0006 OBJ-0005</t>
+  </si>
+  <si>
+    <t>OBJ-0002 OBJ-0004</t>
+  </si>
+  <si>
+    <t>OBJ-0008 OBJ-0007</t>
+  </si>
+  <si>
+    <t>OBJ-0002 OBJ-0004 OBJ-0001</t>
   </si>
 </sst>
 </file>
@@ -575,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -657,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,7 +885,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3"/>
       <c r="E1" s="3"/>
@@ -1237,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N65510"/>
+  <dimension ref="A1:M65510"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1249,61 +1117,49 @@
     <col min="2" max="2" width="8" style="14" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="14" customWidth="1"/>
     <col min="4" max="5" width="36.7109375" style="19" customWidth="1"/>
-    <col min="6" max="10" width="27.7109375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="20" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="14" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" style="16" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="16"/>
+    <col min="6" max="9" width="27.7109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="20" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="14" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="36.75" customHeight="1">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1">
       <c r="A3" s="30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1311,30 +1167,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="14"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -1342,30 +1194,26 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
@@ -1373,30 +1221,26 @@
         <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
@@ -1404,30 +1248,26 @@
         <v>4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>18</v>
       </c>
@@ -1435,30 +1275,26 @@
         <v>5</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -1466,646 +1302,396 @@
         <v>6</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="17">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="E12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="14"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="E13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="14"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="17">
+        <v>11</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="14"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="17">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="18" t="s">
+      <c r="E15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="17">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="17">
-        <v>2</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="17">
-        <v>3</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="14"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="17">
-        <v>4</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="E17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="17">
-        <v>5</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="17">
-        <v>6</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="17">
-        <v>7</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="17">
-        <v>8</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="17">
-        <v>9</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>91</v>
-      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="14"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="17">
-        <v>10</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>91</v>
-      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="14"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="18" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="17">
-        <v>11</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="17">
-        <v>12</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="14"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="17">
-        <v>13</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>92</v>
-      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="14"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="17">
-        <v>14</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>93</v>
-      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:11" ht="18" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="17">
-        <v>1</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>112</v>
-      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="14"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="17">
-        <v>2</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>113</v>
-      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="14"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="17">
-        <v>3</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>114</v>
-      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="14"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="17">
-        <v>4</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>115</v>
-      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="14"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" ht="18" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="17">
-        <v>5</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>116</v>
-      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="14"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="17">
-        <v>6</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>117</v>
-      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="14"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1">
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="14"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2113,18 +1699,12 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" customHeight="1">
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="14"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -2132,18 +1712,12 @@
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" customHeight="1">
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="14"/>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2151,18 +1725,12 @@
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
-      <c r="H32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="1:11" ht="18" customHeight="1">
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="14"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -2170,18 +1738,12 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="1:11" ht="18" customHeight="1">
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="14"/>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2189,130 +1751,46 @@
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="1:11" ht="18" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:11" ht="18" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="1:11" ht="18" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="1:11" ht="18" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="17"/>
-    </row>
-    <row r="40" spans="1:11" ht="18" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="17"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="14"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" customHeight="1">
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="14"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" customHeight="1">
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="14"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1">
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="14"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" ht="18" customHeight="1">
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="14"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="1:13" ht="18" customHeight="1">
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="14"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="1:13" ht="18" customHeight="1">
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="14"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="65510" ht="13.5" customHeight="1"/>
   </sheetData>
@@ -2321,10 +1799,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A40" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A34" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"RF,RD,RR,RI"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B40" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B34" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>1</formula1>
       <formula2>1000</formula2>
     </dataValidation>

--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_MTT_181004_MatrizTrazabilidadRequisitos_v1.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_MTT_181004_MatrizTrazabilidadRequisitos_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROY\Documents\GitHub\PracticaXesPro_GrupoL\Repositorio\Proyecto\DocumentosPropios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0730938F-9C3B-488F-9640-C112FB042278}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD66510B-142C-4F42-AB40-AACE96C1CF50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="15195" windowHeight="8700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Código de Proyecto:</t>
   </si>
@@ -270,25 +270,22 @@
     <t>Ofrecer intretenimiento a cliente</t>
   </si>
   <si>
-    <t>OBJ-0008</t>
-  </si>
-  <si>
-    <t>OBJ-0001</t>
-  </si>
-  <si>
-    <t>OBJ-0003 OBJ-0006</t>
-  </si>
-  <si>
     <t>OBJ-0006 OBJ-0005</t>
   </si>
   <si>
-    <t>OBJ-0002 OBJ-0004</t>
-  </si>
-  <si>
-    <t>OBJ-0008 OBJ-0007</t>
-  </si>
-  <si>
-    <t>OBJ-0002 OBJ-0004 OBJ-0001</t>
+    <t>OBJ-0004 OBJ-0003 OBJ-0002</t>
+  </si>
+  <si>
+    <t>OBJ-0005</t>
+  </si>
+  <si>
+    <t>OBJ-0001 OBJ-0005</t>
+  </si>
+  <si>
+    <t>OBJ-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJ-0002 </t>
   </si>
 </sst>
 </file>
@@ -499,6 +496,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,9 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,37 +895,37 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
@@ -937,14 +934,14 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="7"/>
       <c r="I8" s="4"/>
     </row>
@@ -1108,7 +1105,7 @@
   <dimension ref="A1:M65510"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1139,10 +1136,10 @@
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="23" t="s">
         <v>15</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>57</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -1260,7 +1257,7 @@
         <v>59</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -1287,7 +1284,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -1314,7 +1311,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -1341,7 +1338,7 @@
         <v>61</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -1368,7 +1365,7 @@
         <v>61</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1395,7 +1392,7 @@
         <v>61</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -1422,7 +1419,7 @@
         <v>61</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -1447,7 +1444,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -1474,7 +1471,7 @@
         <v>61</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1528,7 +1525,7 @@
         <v>63</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -1543,7 +1540,7 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="32"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="16"/>
       <c r="J18" s="14"/>
       <c r="M18" s="16"/>
